--- a/data/hotels_by_city/Dallas/Dallas_shard_458.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_458.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tex K</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>Bitten by bed bugs &amp; now have huge itchy red bite spots.  Manager Jennifer said they won’t give any compensation on price of room unless they see the bed bugs themselves.  Showed her the bite marks as proof.  Then said if they did find a live bug in their room the compensation is they supposedly refund your money &amp; then throw you out for getting bitten by their bugs!  She says once their bugs get into all your stuff they don’t want to move you to a room that might not already have bugs.  What kind of apology &amp; service training is this.  Don’t stay here unless you like being eaten alive by bugs &amp; then being insulted by the manager.More</t>
   </si>
   <si>
+    <t>Jim P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r486640883-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>trackinggeos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r462796090-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>This place is managed for only 8 hours a day (by a ragged crew at that). With no security on-site people come and go as they please as soon as the door is opened, so you never know where they are going or what are their purpose inside the building. Windows were broken Friday morning after a fight broke out. If you ask "management" anything they don't know squat.If you need to get a laundry card you have to spend 5 dollars to get one and only have a credit of two dollars after the transaction, which doesn't give you enough money for one wash/dry cycle. Since the machine only takes 5's,10's and 20's you are pushed to spend another 5 to have enough to wash your laundry. If you can afford something more do not stay here at all. I came in town for work and as soon as I am done I'm out of this hell hole.More</t>
   </si>
   <si>
+    <t>sdog1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r372715552-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Lee S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r355770689-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -256,6 +271,9 @@
   </si>
   <si>
     <t>If you want a place to survive, this is it.No frills whatsoever. No hospitality. No Customer service. No friendly staff.Minimal cleaning, really, they barely run a vacuum and never a damp mop. If you want cheap and so far secure this is your spot.rates change with minimal notice, starter towels and toiletries includedPlan ahead as arriving 10 minutes prior to office closing you will be turned away.Hope to be up an out soon.Could be worse I guess. Good luck.</t>
+  </si>
+  <si>
+    <t>Simon B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r335279113-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -784,43 +802,47 @@
       <c r="A2" t="n">
         <v>38661</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>162740</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -834,50 +856,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38661</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9010</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -891,50 +917,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38661</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162741</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -954,50 +984,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38661</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>162742</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1011,41 +1045,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38661</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>6015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -1064,50 +1102,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38661</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>108724</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1127,7 +1169,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_458.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_458.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Tex K</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r542551242-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -183,9 +180,6 @@
     <t>Bitten by bed bugs &amp; now have huge itchy red bite spots.  Manager Jennifer said they won’t give any compensation on price of room unless they see the bed bugs themselves.  Showed her the bite marks as proof.  Then said if they did find a live bug in their room the compensation is they supposedly refund your money &amp; then throw you out for getting bitten by their bugs!  She says once their bugs get into all your stuff they don’t want to move you to a room that might not already have bugs.  What kind of apology &amp; service training is this.  Don’t stay here unless you like being eaten alive by bugs &amp; then being insulted by the manager.More</t>
   </si>
   <si>
-    <t>Jim P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r486640883-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>trackinggeos</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r462796090-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>This place is managed for only 8 hours a day (by a ragged crew at that). With no security on-site people come and go as they please as soon as the door is opened, so you never know where they are going or what are their purpose inside the building. Windows were broken Friday morning after a fight broke out. If you ask "management" anything they don't know squat.If you need to get a laundry card you have to spend 5 dollars to get one and only have a credit of two dollars after the transaction, which doesn't give you enough money for one wash/dry cycle. Since the machine only takes 5's,10's and 20's you are pushed to spend another 5 to have enough to wash your laundry. If you can afford something more do not stay here at all. I came in town for work and as soon as I am done I'm out of this hell hole.More</t>
   </si>
   <si>
-    <t>sdog1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r372715552-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Lee S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r355770689-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
   </si>
   <si>
     <t>If you want a place to survive, this is it.No frills whatsoever. No hospitality. No Customer service. No friendly staff.Minimal cleaning, really, they barely run a vacuum and never a damp mop. If you want cheap and so far secure this is your spot.rates change with minimal notice, starter towels and toiletries includedPlan ahead as arriving 10 minutes prior to office closing you will be turned away.Hope to be up an out soon.Could be worse I guess. Good luck.</t>
-  </si>
-  <si>
-    <t>Simon B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d224237-r335279113-InTown_Suites_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -802,47 +784,43 @@
       <c r="A2" t="n">
         <v>38661</v>
       </c>
-      <c r="B2" t="n">
-        <v>162740</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -856,54 +834,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38661</v>
       </c>
-      <c r="B3" t="n">
-        <v>9010</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -917,54 +891,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38661</v>
       </c>
-      <c r="B4" t="n">
-        <v>162741</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -984,54 +954,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38661</v>
       </c>
-      <c r="B5" t="n">
-        <v>162742</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1045,45 +1011,41 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38661</v>
       </c>
-      <c r="B6" t="n">
-        <v>6015</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -1102,54 +1064,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38661</v>
       </c>
-      <c r="B7" t="n">
-        <v>108724</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1169,7 +1127,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
